--- a/outputs-HGR-r202/test-g__Prevotellamassilia_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Prevotellamassilia_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Row</t>
   </si>
@@ -100,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -110,14 +110,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,45 +149,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -221,269 +225,269 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0010408490895528028</v>
+        <v>0.00013209855741057043</v>
       </c>
       <c r="C3">
-        <v>0.97592054524229632</v>
+        <v>1.1292838247862957e-13</v>
       </c>
       <c r="D3">
-        <v>0.0013374053829475821</v>
+        <v>0.96530152595846419</v>
       </c>
       <c r="E3">
-        <v>0.0007136804769568274</v>
+        <v>0.00019178092144506563</v>
       </c>
       <c r="F3">
-        <v>5.3996731342891706e-05</v>
+        <v>0.0047094864293623405</v>
       </c>
       <c r="G3">
-        <v>0.007244440213252175</v>
+        <v>0.026400907316091158</v>
       </c>
       <c r="H3">
-        <v>0.00039356552230118816</v>
+        <v>0.00097843053927313545</v>
       </c>
       <c r="I3">
-        <v>0.00021411849561359475</v>
+        <v>0.00062227882296852848</v>
       </c>
       <c r="J3">
-        <v>2.2204976795953153e-14</v>
+        <v>2.2201526247390711e-14</v>
       </c>
       <c r="K3">
-        <v>0.013081398845714435</v>
+        <v>0.0016634914548499561</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.00013209855741057043</v>
+        <v>2.1071407485396024e-05</v>
       </c>
       <c r="C4">
-        <v>1.1292838247862957e-13</v>
+        <v>2.2206954297552004e-14</v>
       </c>
       <c r="D4">
-        <v>0.96530152595846419</v>
+        <v>0.96695362444995958</v>
       </c>
       <c r="E4">
-        <v>0.00019178092144506563</v>
+        <v>0.00087518399721022951</v>
       </c>
       <c r="F4">
-        <v>0.0047094864293623405</v>
+        <v>0.0019349345013098961</v>
       </c>
       <c r="G4">
-        <v>0.026400907316091158</v>
+        <v>0.0023440109553819408</v>
       </c>
       <c r="H4">
-        <v>0.00097843053927313545</v>
+        <v>0.016999430957974831</v>
       </c>
       <c r="I4">
-        <v>0.00062227882296852848</v>
+        <v>0.00063847503636355182</v>
       </c>
       <c r="J4">
-        <v>2.2201526247390711e-14</v>
+        <v>2.2206954297552004e-14</v>
       </c>
       <c r="K4">
-        <v>0.0016634914548499561</v>
+        <v>0.01023326869427005</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2.1071407485396024e-05</v>
+        <v>6.7102155138534786e-05</v>
       </c>
       <c r="C5">
-        <v>2.2206954297552004e-14</v>
+        <v>2.2203980742462337e-14</v>
       </c>
       <c r="D5">
-        <v>0.96695362444995958</v>
+        <v>0.98701308857034997</v>
       </c>
       <c r="E5">
-        <v>0.00087518399721022951</v>
+        <v>0.00031989459365614343</v>
       </c>
       <c r="F5">
-        <v>0.0019349345013098961</v>
+        <v>0.00030839464995669938</v>
       </c>
       <c r="G5">
-        <v>0.0023440109553819408</v>
+        <v>0.0031696388220967603</v>
       </c>
       <c r="H5">
-        <v>0.016999430957974831</v>
+        <v>0.0059655087057630942</v>
       </c>
       <c r="I5">
-        <v>0.00063847503636355182</v>
+        <v>0.00024771699422559734</v>
       </c>
       <c r="J5">
-        <v>2.2206954297552004e-14</v>
+        <v>2.2203980742462337e-14</v>
       </c>
       <c r="K5">
-        <v>0.01023326869427005</v>
+        <v>0.0029086555087688656</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>6.7102155138534786e-05</v>
+        <v>0.0048913445029775968</v>
       </c>
       <c r="C6">
-        <v>2.2203980742462337e-14</v>
+        <v>3.0576026098079199e-14</v>
       </c>
       <c r="D6">
-        <v>0.98701308857034997</v>
+        <v>0.011667935009978533</v>
       </c>
       <c r="E6">
-        <v>0.00031989459365614343</v>
+        <v>0.00022724119343447063</v>
       </c>
       <c r="F6">
-        <v>0.00030839464995669938</v>
+        <v>0.00090816214104268156</v>
       </c>
       <c r="G6">
-        <v>0.0031696388220967603</v>
+        <v>0.85757530379804603</v>
       </c>
       <c r="H6">
-        <v>0.0059655087057630942</v>
+        <v>0.10549392122435713</v>
       </c>
       <c r="I6">
-        <v>0.00024771699422559734</v>
+        <v>0.0044361488668331027</v>
       </c>
       <c r="J6">
-        <v>2.2203980742462337e-14</v>
+        <v>3.0576026098078978e-14</v>
       </c>
       <c r="K6">
-        <v>0.0029086555087688656</v>
+        <v>0.014799943263269368</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.00017645455399899814</v>
+      </c>
+      <c r="C7">
+        <v>8.5956582369458175e-14</v>
+      </c>
+      <c r="D7">
+        <v>0.0096711065301645915</v>
+      </c>
+      <c r="E7">
+        <v>8.7693263701961975e-05</v>
+      </c>
+      <c r="F7">
+        <v>0.00011842273434351868</v>
+      </c>
+      <c r="G7">
+        <v>0.88759519162212774</v>
+      </c>
+      <c r="H7">
+        <v>0.091782571284082681</v>
+      </c>
+      <c r="I7">
+        <v>0.0022875691455279952</v>
+      </c>
+      <c r="J7">
+        <v>8.5956582369458036e-14</v>
+      </c>
+      <c r="K7">
+        <v>0.0082809908658805307</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.00027012033073580105</v>
-      </c>
-      <c r="C7">
-        <v>0.97838391917502587</v>
-      </c>
-      <c r="D7">
-        <v>0.0004473534715895653</v>
-      </c>
-      <c r="E7">
-        <v>0.0014647399114032093</v>
-      </c>
-      <c r="F7">
-        <v>1.093651264852781e-05</v>
-      </c>
-      <c r="G7">
-        <v>0.00095377776767806885</v>
-      </c>
-      <c r="H7">
-        <v>0.00040910237879746323</v>
-      </c>
-      <c r="I7">
-        <v>0.00010098970631985789</v>
-      </c>
-      <c r="J7">
-        <v>2.2199659461003757e-14</v>
-      </c>
-      <c r="K7">
-        <v>0.01795906074577968</v>
-      </c>
-      <c r="L7">
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8.4979178287188914e-05</v>
+      </c>
+      <c r="C8">
+        <v>0.99098040308932223</v>
+      </c>
+      <c r="D8">
+        <v>0.004036079998096174</v>
+      </c>
+      <c r="E8">
+        <v>0.00042967260877196543</v>
+      </c>
+      <c r="F8">
+        <v>0.00010528431425595386</v>
+      </c>
+      <c r="G8">
+        <v>0.0004177557141587429</v>
+      </c>
+      <c r="H8">
+        <v>0.00088926939542123334</v>
+      </c>
+      <c r="I8">
+        <v>5.8446859354884988e-06</v>
+      </c>
+      <c r="J8">
+        <v>2.2203155784041059e-14</v>
+      </c>
+      <c r="K8">
+        <v>0.0030507110157288703</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.0048913445029775968</v>
-      </c>
-      <c r="C8">
-        <v>3.0576026098079199e-14</v>
-      </c>
-      <c r="D8">
-        <v>0.011667935009978533</v>
-      </c>
-      <c r="E8">
-        <v>0.00022724119343447063</v>
-      </c>
-      <c r="F8">
-        <v>0.00090816214104268156</v>
-      </c>
-      <c r="G8">
-        <v>0.85757530379804603</v>
-      </c>
-      <c r="H8">
-        <v>0.10549392122435713</v>
-      </c>
-      <c r="I8">
-        <v>0.0044361488668331027</v>
-      </c>
-      <c r="J8">
-        <v>3.0576026098078978e-14</v>
-      </c>
-      <c r="K8">
-        <v>0.014799943263269368</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00017645455399899814</v>
+        <v>0.38441396489245677</v>
       </c>
       <c r="C9">
-        <v>8.5956582369458175e-14</v>
+        <v>5.446325900298745e-14</v>
       </c>
       <c r="D9">
-        <v>0.0096711065301645915</v>
+        <v>0.0017020251508702668</v>
       </c>
       <c r="E9">
-        <v>8.7693263701961975e-05</v>
+        <v>0.00034312174656500475</v>
       </c>
       <c r="F9">
-        <v>0.00011842273434351868</v>
+        <v>0.00010475598634774329</v>
       </c>
       <c r="G9">
-        <v>0.88759519162212774</v>
+        <v>0.046859508746574741</v>
       </c>
       <c r="H9">
-        <v>0.091782571284082681</v>
+        <v>0.16717122135339166</v>
       </c>
       <c r="I9">
-        <v>0.0022875691455279952</v>
+        <v>0.35659651533414816</v>
       </c>
       <c r="J9">
-        <v>8.5956582369458036e-14</v>
+        <v>5.4463259002985229e-14</v>
       </c>
       <c r="K9">
-        <v>0.0082809908658805307</v>
+        <v>0.04280888678953667</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
